--- a/qualys_scan/SEA_PDUS.xlsx
+++ b/qualys_scan/SEA_PDUS.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DNS NOT in CMDB</t>
+          <t>DNS in CMDB</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>DNS NOT in CMDB</t>
+          <t>DNS in CMDB</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DNS NOT in CMDB</t>
+          <t>DNS in CMDB</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>DNS NOT in CMDB</t>
+          <t>DNS in CMDB</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>DNS NOT in CMDB</t>
+          <t>DNS in CMDB</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
